--- a/LCDF7TouchGfx/TouchGFX/assets/texts/texts.xlsx
+++ b/LCDF7TouchGfx/TouchGFX/assets/texts/texts.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="54">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41,12 +41,12 @@
     <t xml:space="preserve">TouchGFX - Translation Sheet</t>
   </si>
   <si>
+    <t xml:space="preserve">RIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Typography Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Add additional language here (1 to 3 capital letters) - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Add additional language here (1 to 3 capital letters) - 2</t>
   </si>
   <si>
@@ -59,13 +59,31 @@
     <t xml:space="preserve">Add additional language columns here</t>
   </si>
   <si>
+    <t xml:space="preserve">DigitalClock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;time&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital_clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asap-Regular.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallback Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Characters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wildcard Ranges</t>
   </si>
   <si>
-    <t xml:space="preserve">Fallback Character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard Characters</t>
+    <t xml:space="preserve">APM :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
   </si>
   <si>
     <t xml:space="preserve">Column</t>
@@ -137,18 +155,6 @@
     <t xml:space="preserve">0x22EF</t>
   </si>
   <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verdana.ttf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEXT ID</t>
   </si>
   <si>
@@ -158,32 +164,26 @@
     <t xml:space="preserve">ALIGNMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">DIRECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleUseId1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR</t>
+    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
   </si>
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">New Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleUseId2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,7 +231,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -242,7 +248,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,14 +261,8 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -272,6 +272,117 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -283,149 +394,14 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,44 +489,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -944,13 +934,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I799" totalsRowShown="0" tableBorderDxfId="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H800" totalsRowShown="0" tableBorderDxfId="0">
+  <tableColumns count="7">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
     <tableColumn id="3" name="Alignment"/>
     <tableColumn id="4" name="GB"/>
-    <tableColumn id="5" name="Add additional language here (1 to 3 capital letters) - "/>
     <tableColumn id="6" name="Add additional language here (1 to 3 capital letters) - 2"/>
     <tableColumn id="7" name="Add additional language here (1 to 3 capital letters) - 3"/>
     <tableColumn id="8" name="Add additional language here (1 to 3 capital letters) - 4"/>
@@ -1340,14 +1329,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.28515625" style="0" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="0" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="0" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="0" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="0" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" style="0" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="0" customWidth="1"/>
     <col min="12" max="12" width="84.7109375" style="0" bestFit="1" customWidth="1"/>
@@ -1372,199 +1361,183 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>36</v>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
       <c r="I4"/>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>21</v>
+      <c r="J4" s="5"/>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="L5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="15">
         <v>20</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="15">
         <v>36</v>
       </c>
-      <c r="O5" s="11"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="J6" s="5"/>
+      <c r="K6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="15">
         <v>4</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="K6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="10">
-        <v>4</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="N6" s="15">
         <v>8</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="K7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>27</v>
+      <c r="J7" s="5"/>
+      <c r="K7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="K8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="K9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>34</v>
+      <c r="J9" s="5"/>
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="K10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="15"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="K11" s="16"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="L12" s="17" t="s">
-        <v>35</v>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J799"/>
+  <dimension ref="B1:I800"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1596,11 +1569,10 @@
     <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
+    <row r="1" spans="2:9" ht="129" hidden="1" customHeight="1">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -1608,9 +1580,8 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.95" customHeight="1">
+    <row r="2" spans="2:9" ht="39.95" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
@@ -1620,39 +1591,57 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
+    <row r="4" spans="2:9" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" ht="15" customHeight="1"/>
+    <row r="6" spans="2:9"/>
+    <row r="7" spans="2:9"/>
+    <row r="8" spans="2:9"/>
+    <row r="9" spans="2:9"/>
+    <row r="10" spans="2:9"/>
+    <row r="13" spans="2:9"/>
+    <row r="14" spans="2:9"/>
+    <row r="15" spans="2:9"/>
+    <row r="16" spans="2:9"/>
     <row r="17" spans="4:4"/>
     <row r="18" spans="4:4"/>
     <row r="19" spans="4:4"/>
@@ -2436,16 +2425,17 @@
     <row r="797" spans="4:4"/>
     <row r="798" spans="4:4"/>
     <row r="799" spans="4:4"/>
+    <row r="800" spans="4:4"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>